--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\pokemon-go-brno-trainer-rankings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52AD22A-6001-49A1-90F1-3077DE89D4F4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E702DE-2D51-46FA-A6B5-598D56C86730}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6084" xr2:uid="{DD3F13C4-A3A8-48D6-AC71-102D3DF30613}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="203">
   <si>
     <t>player1</t>
   </si>
@@ -406,9 +406,6 @@
   </si>
   <si>
     <t>Deidy0440</t>
-  </si>
-  <si>
-    <t>Perna182</t>
   </si>
   <si>
     <t>2019-02-02T18:06:11.945Z</t>
@@ -1012,7 +1009,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24306191-D62D-49D4-A464-522ED3D1A114}">
   <dimension ref="A1:H161"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1039,13 +1038,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G1" t="s">
         <v>188</v>
       </c>
-      <c r="G1" t="s">
-        <v>189</v>
-      </c>
       <c r="H1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -3096,7 +3095,7 @@
         <v>1</v>
       </c>
       <c r="G80" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -3122,7 +3121,7 @@
         <v>1</v>
       </c>
       <c r="G81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3148,7 +3147,7 @@
         <v>1</v>
       </c>
       <c r="G82" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3174,7 +3173,7 @@
         <v>1</v>
       </c>
       <c r="G83" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3200,7 +3199,7 @@
         <v>1</v>
       </c>
       <c r="G84" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3226,7 +3225,7 @@
         <v>1</v>
       </c>
       <c r="G85" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3252,7 +3251,7 @@
         <v>1</v>
       </c>
       <c r="G86" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3278,7 +3277,7 @@
         <v>1</v>
       </c>
       <c r="G87" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3468,13 +3467,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B95" t="s">
         <v>126</v>
       </c>
       <c r="C95" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -3494,10 +3493,10 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B96" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C96" t="s">
         <v>12</v>
@@ -3520,7 +3519,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B97" t="s">
         <v>17</v>
@@ -3546,10 +3545,10 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B98" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C98" t="s">
         <v>15</v>
@@ -3572,7 +3571,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B99" t="s">
         <v>119</v>
@@ -3598,13 +3597,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B100" t="s">
         <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D100">
         <v>2</v>
@@ -3624,13 +3623,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
       </c>
       <c r="C101" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="D101">
         <v>2</v>
@@ -3650,7 +3649,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B102" t="s">
         <v>126</v>
@@ -3676,7 +3675,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B103" t="s">
         <v>23</v>
@@ -3702,10 +3701,10 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B104" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C104" t="s">
         <v>42</v>
@@ -3728,7 +3727,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B105" t="s">
         <v>14</v>
@@ -3754,7 +3753,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B106" t="s">
         <v>29</v>
@@ -3780,7 +3779,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B107" t="s">
         <v>32</v>
@@ -3806,7 +3805,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -3832,7 +3831,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B109" t="s">
         <v>30</v>
@@ -3858,7 +3857,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B110" t="s">
         <v>38</v>
@@ -3884,13 +3883,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -3910,7 +3909,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B112" t="s">
         <v>20</v>
@@ -3936,13 +3935,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B113" t="s">
         <v>42</v>
       </c>
       <c r="C113" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -3962,7 +3961,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B114" t="s">
         <v>5</v>
@@ -3988,7 +3987,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B115" t="s">
         <v>26</v>
@@ -4014,7 +4013,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B116" t="s">
         <v>121</v>
@@ -4040,10 +4039,10 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B117" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="C117" t="s">
         <v>21</v>
@@ -4066,7 +4065,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B118" t="s">
         <v>14</v>
@@ -4092,7 +4091,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B119" t="s">
         <v>15</v>
@@ -4118,7 +4117,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B120" t="s">
         <v>126</v>
@@ -4144,7 +4143,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
@@ -4170,7 +4169,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B122" t="s">
         <v>29</v>
@@ -4196,7 +4195,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B123" t="s">
         <v>21</v>
@@ -4222,13 +4221,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B124" t="s">
         <v>42</v>
       </c>
       <c r="C124" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -4248,7 +4247,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B125" t="s">
         <v>121</v>
@@ -4274,7 +4273,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B126" t="s">
         <v>30</v>
@@ -4300,7 +4299,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -4326,7 +4325,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B128" t="s">
         <v>23</v>
@@ -4352,10 +4351,10 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B129" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C129" t="s">
         <v>26</v>
@@ -4378,10 +4377,10 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C130" t="s">
         <v>126</v>
@@ -4404,7 +4403,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B131" t="s">
         <v>17</v>
@@ -4430,7 +4429,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B132" t="s">
         <v>26</v>
@@ -4456,7 +4455,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B133" t="s">
         <v>17</v>
@@ -4482,7 +4481,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B134" t="s">
         <v>119</v>
@@ -4508,13 +4507,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B135" t="s">
         <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -4534,7 +4533,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B136" t="s">
         <v>42</v>
@@ -4560,7 +4559,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B137" t="s">
         <v>20</v>
@@ -4586,13 +4585,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B138" t="s">
         <v>23</v>
       </c>
       <c r="C138" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -4612,7 +4611,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B139" t="s">
         <v>21</v>
@@ -4638,7 +4637,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -4664,10 +4663,10 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B141" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="C141" t="s">
         <v>15</v>
@@ -4690,7 +4689,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B142" t="s">
         <v>121</v>
@@ -4716,7 +4715,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B143" t="s">
         <v>32</v>
@@ -4742,7 +4741,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B144" t="s">
         <v>38</v>
@@ -4768,10 +4767,10 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B145" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
       <c r="C145" t="s">
         <v>26</v>
@@ -4794,7 +4793,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
@@ -4820,7 +4819,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B147" t="s">
         <v>126</v>
@@ -4846,7 +4845,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B148" t="s">
         <v>23</v>
@@ -4872,13 +4871,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B149" t="s">
         <v>17</v>
       </c>
       <c r="C149" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -4898,7 +4897,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B150" t="s">
         <v>14</v>
@@ -4924,7 +4923,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B151" t="s">
         <v>21</v>
@@ -4950,13 +4949,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B152" t="s">
         <v>20</v>
       </c>
       <c r="C152" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D152">
         <v>2</v>
@@ -4976,7 +4975,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B153" t="s">
         <v>121</v>
@@ -5002,7 +5001,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B154" t="s">
         <v>17</v>
@@ -5020,7 +5019,7 @@
         <v>2</v>
       </c>
       <c r="G154" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -5028,7 +5027,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B155" t="s">
         <v>121</v>
@@ -5046,7 +5045,7 @@
         <v>2</v>
       </c>
       <c r="G155" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -5054,7 +5053,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B156" t="s">
         <v>23</v>
@@ -5072,7 +5071,7 @@
         <v>2</v>
       </c>
       <c r="G156" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -5080,7 +5079,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B157" t="s">
         <v>14</v>
@@ -5098,7 +5097,7 @@
         <v>2</v>
       </c>
       <c r="G157" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -5106,7 +5105,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B158" t="s">
         <v>121</v>
@@ -5124,7 +5123,7 @@
         <v>2</v>
       </c>
       <c r="G158" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -5132,7 +5131,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B159" t="s">
         <v>23</v>
@@ -5150,7 +5149,7 @@
         <v>2</v>
       </c>
       <c r="G159" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -5158,7 +5157,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B160" t="s">
         <v>23</v>
@@ -5176,7 +5175,7 @@
         <v>2</v>
       </c>
       <c r="G160" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -5184,7 +5183,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B161" t="s">
         <v>14</v>
@@ -5202,7 +5201,7 @@
         <v>2</v>
       </c>
       <c r="G161" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H161">
         <v>0</v>
